--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed3/result_data_KNN.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.88</v>
+        <v>-7.877</v>
       </c>
     </row>
     <row r="5">
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.412</v>
+        <v>-22.305</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.01</v>
+        <v>-21.871</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.396</v>
+        <v>-21.474</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.138</v>
+        <v>-6.873</v>
       </c>
     </row>
     <row r="13">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.888</v>
+        <v>-8.311999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -676,12 +676,12 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.013999999999999</v>
+        <v>-8.193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.018</v>
+        <v>-22.095</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.006</v>
+        <v>-7.255000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.068</v>
+        <v>-7.728</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.673999999999999</v>
+        <v>-8.047999999999998</v>
       </c>
     </row>
     <row r="29">
@@ -947,7 +947,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.944</v>
+        <v>-20.458</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.612</v>
+        <v>-8.257000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.766</v>
+        <v>-7.452</v>
       </c>
     </row>
     <row r="48">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.964</v>
+        <v>-22.204</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.922</v>
+        <v>-7.741</v>
       </c>
     </row>
     <row r="66">
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.42</v>
+        <v>-21.53</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.114000000000001</v>
+        <v>-8.129999999999999</v>
       </c>
     </row>
     <row r="74">
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.77</v>
+        <v>-20.522</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.47</v>
+        <v>-19.951</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.76</v>
+        <v>-21.72</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9</v>
+        <v>-22.209</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.424000000000001</v>
+        <v>-7.994</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.729999999999999</v>
+        <v>-8.559999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.090000000000001</v>
+        <v>-7.007000000000001</v>
       </c>
     </row>
     <row r="94">
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.386</v>
+        <v>-7.557</v>
       </c>
     </row>
     <row r="96">
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.52</v>
+        <v>-7.203999999999999</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.359999999999999</v>
+        <v>-8.189</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.590000000000001</v>
+        <v>-8.214</v>
       </c>
     </row>
     <row r="102">
